--- a/Hazer/dat/tumbleweed/KK1446/20191007.xlsx
+++ b/Hazer/dat/tumbleweed/KK1446/20191007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsloan/src/com-diag-hazer/Hazer/dat/tumbleweed/KK1446/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251ED5D0-009F-EF42-B4A5-A957D703A422}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC47DF-2451-574D-960C-2E187DCB959B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="900" windowWidth="32760" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="4140" windowWidth="32760" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20191007" sheetId="1" r:id="rId1"/>
@@ -1113,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2036,5 +2036,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="G21:G22 G24:G25" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>